--- a/ATLETIUM-T/abacaba.xlsx
+++ b/ATLETIUM-T/abacaba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Happy Wolf\Desktop\ATLETIUM-T\back\git\back_ATLETIUM-T\ATLETIUM-T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\study\projects\AtletiumTGit\back_ATLETIUM-T\ATLETIUM-T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FA0B568-5434-4036-A8D5-9A35617FB8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEBFFC6-5315-4AE2-8140-4AE0D41C0BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D03621B3-57A7-4AA8-85F9-29726E2FB0E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D03621B3-57A7-4AA8-85F9-29726E2FB0E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2002B79-70E5-405D-9D12-301C45F0D088}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1714,7 @@
         <v>41504190</v>
       </c>
       <c r="L19">
-        <f t="shared" si="14"/>
+        <f>L18+K19</f>
         <v>106523235</v>
       </c>
       <c r="Q19">
@@ -1783,12 +1783,12 @@
         <f t="shared" si="13"/>
         <v>64642305</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="14"/>
-        <v>171165540</v>
+      <c r="L20" t="str">
+        <f>"ВоВаМолодец"</f>
+        <v>ВоВаМолодец</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="15"/>
+        <f>Q19+1</f>
         <v>20</v>
       </c>
       <c r="R20">
@@ -1806,6 +1806,90 @@
       <c r="U20">
         <f t="shared" si="19"/>
         <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:L34" si="20">"ВоВаМолодец"</f>
+        <v>ВоВаМолодец</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L22" t="str">
+        <f t="shared" si="20"/>
+        <v>ВоВаМолодец</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L23" t="str">
+        <f t="shared" si="20"/>
+        <v>ВоВаМолодец</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L24" t="str">
+        <f t="shared" si="20"/>
+        <v>ВоВаМолодец</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L25" t="str">
+        <f t="shared" si="20"/>
+        <v>ВоВаМолодец</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L26" t="str">
+        <f t="shared" si="20"/>
+        <v>ВоВаМолодец</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L27" t="str">
+        <f t="shared" si="20"/>
+        <v>ВоВаМолодец</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L28" t="str">
+        <f t="shared" si="20"/>
+        <v>ВоВаМолодец</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L29" t="str">
+        <f t="shared" si="20"/>
+        <v>ВоВаМолодец</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L30" t="str">
+        <f t="shared" si="20"/>
+        <v>ВоВаМолодец</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L31" t="str">
+        <f t="shared" si="20"/>
+        <v>ВоВаМолодец</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L32" t="str">
+        <f t="shared" si="20"/>
+        <v>ВоВаМолодец</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" t="str">
+        <f t="shared" si="20"/>
+        <v>ВоВаМолодец</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" t="str">
+        <f t="shared" si="20"/>
+        <v>ВоВаМолодец</v>
       </c>
     </row>
   </sheetData>
